--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10310\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8640" tabRatio="786" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RC 充放 電容" sheetId="1" r:id="rId1"/>
     <sheet name="RC 充放 電阻" sheetId="2" r:id="rId2"/>
     <sheet name="交流訊號 電容" sheetId="3" r:id="rId3"/>
     <sheet name="交流訊號 電阻" sheetId="4" r:id="rId4"/>
+    <sheet name="綠光1" sheetId="5" r:id="rId5"/>
+    <sheet name="綠光2" sheetId="6" r:id="rId6"/>
+    <sheet name="綠光3" sheetId="7" r:id="rId7"/>
+    <sheet name="紅光1" sheetId="8" r:id="rId8"/>
+    <sheet name="紅光2" sheetId="9" r:id="rId9"/>
+    <sheet name="紅光3" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="27">
   <si>
     <t>Hz</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -84,11 +86,54 @@
     <t>v</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>M*</t>
+  </si>
+  <si>
+    <t>.0L</t>
+  </si>
+  <si>
+    <t>OHM</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>DC/AC</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>k*</t>
+  </si>
+  <si>
+    <t>0L.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,11 +184,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -162,6 +219,1998 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>綠光1!$G$1:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>綠光1!$H$1:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3250000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="176921600"/>
+        <c:axId val="176931968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="176921600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176931968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176931968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>光敏電阻值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-TW">
+                    <a:latin typeface="新細明體"/>
+                    <a:ea typeface="新細明體"/>
+                  </a:rPr>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW">
+                    <a:latin typeface="新細明體"/>
+                    <a:ea typeface="新細明體"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176921600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>綠光2!$G$1:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>綠光2!$H$1:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="176957696"/>
+        <c:axId val="176963968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="176957696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176963968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176963968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>光敏電阻值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-TW" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176957696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>綠光3!$G$1:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>綠光3!$H$1:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.431</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.554</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="177001984"/>
+        <c:axId val="177003904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177001984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177003904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="177003904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>光敏電阻值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-TW">
+                    <a:latin typeface="新細明體"/>
+                    <a:ea typeface="新細明體"/>
+                  </a:rPr>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW">
+                    <a:latin typeface="新細明體"/>
+                    <a:ea typeface="新細明體"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177001984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>紅光1!$G$1:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>紅光1!$H$1:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.595</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="177804800"/>
+        <c:axId val="177806720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177804800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177806720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="177806720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>光敏電阻值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-TW"/>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177804800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>紅光2!$G$1:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>紅光2!$H$1:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.659</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7490000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="177839488"/>
+        <c:axId val="177841664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177839488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177841664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="177841664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>光敏電阻值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-TW"/>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177839488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>紅光3!$G$1:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>紅光3!$H$1:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.462</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9220000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="178000640"/>
+        <c:axId val="178002560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="178000640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178002560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="178002560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>光敏電阻值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="zh-TW">
+                    <a:latin typeface="新細明體"/>
+                    <a:ea typeface="新細明體"/>
+                  </a:rPr>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW">
+                    <a:latin typeface="新細明體"/>
+                    <a:ea typeface="新細明體"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178000640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,7 +2502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -617,7 +2666,7 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <f>B5/2.2</f>
         <v>95.454545454545453</v>
       </c>
@@ -631,7 +2680,7 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f>G5/2.2</f>
         <v>118.18181818181817</v>
       </c>
@@ -645,7 +2694,7 @@
       <c r="K8" t="s">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <f>L5/2.2</f>
         <v>109.09090909090908</v>
       </c>
@@ -661,7 +2710,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <f>B6/2.2</f>
         <v>113.63636363636363</v>
       </c>
@@ -675,7 +2724,7 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <f>G6/2.2</f>
         <v>118.18181818181817</v>
       </c>
@@ -689,7 +2738,7 @@
       <c r="K9" t="s">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <f>L6/2.2</f>
         <v>99.999999999999986</v>
       </c>
@@ -705,7 +2754,7 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <f>B7/LN(2)</f>
         <v>129.84255368000672</v>
       </c>
@@ -716,7 +2765,7 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <f>G7/LN(2)</f>
         <v>121.18638343467293</v>
       </c>
@@ -727,7 +2776,7 @@
       <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <f>L7/LN(2)</f>
         <v>115.41560327111708</v>
       </c>
@@ -740,6 +2789,960 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J1">
+        <f>1/0.4814</f>
+        <v>2.0772746157041961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.41752314814814812</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.41752314814814812</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.41753472222222227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.875</v>
+      </c>
+      <c r="H4" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.41753472222222227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.4175462962962963</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.4175578703703704</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.4175578703703704</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.375</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.41756944444444444</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.41756944444444444</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.625</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.41758101851851853</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.41759259259259257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6.875</v>
+      </c>
+      <c r="H12" s="4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.41759259259259257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.41760416666666672</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.125</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.41761574074074076</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.41761574074074076</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.4176273148148148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.4176273148148148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10.625</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.41763888888888889</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.0489999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.41765046296296293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11.875</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.41765046296296293</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.6719999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.41766203703703703</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4">
+        <v>13.125</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.2080000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.41766203703703703</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2.9260000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.41767361111111106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4">
+        <v>14.375</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3.5510000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.41768518518518521</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.9220000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.41768518518518521</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>1.462</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.41769675925925925</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.41769675925925925</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.41770833333333335</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.41771990740740739</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>3.5510000000000002</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.41771990740740739</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>3.9220000000000002</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.41773148148148148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.41773148148148148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.41774305555555552</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.41774305555555552</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.41775462962962967</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.41776620370370371</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.41776620370370371</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>3.4580000000000002</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.4177777777777778</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -748,10 +3751,13 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -898,7 +3904,7 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <f>B5/2.2</f>
         <v>104.54545454545453</v>
       </c>
@@ -912,7 +3918,7 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f>G5/2.2</f>
         <v>95.454545454545453</v>
       </c>
@@ -926,7 +3932,7 @@
       <c r="K8" t="s">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <f>L5/2.2</f>
         <v>95.454545454545453</v>
       </c>
@@ -942,7 +3948,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <f>B6/2.2</f>
         <v>109.09090909090908</v>
       </c>
@@ -956,7 +3962,7 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <f>G6/2.2</f>
         <v>109.09090909090908</v>
       </c>
@@ -970,7 +3976,7 @@
       <c r="K9" t="s">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <f>L6/2.2</f>
         <v>99.999999999999986</v>
       </c>
@@ -986,7 +3992,7 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <f>B7/LN(2)</f>
         <v>115.41560327111708</v>
       </c>
@@ -997,7 +4003,7 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <f>G7/LN(2)</f>
         <v>121.18638343467293</v>
       </c>
@@ -1008,7 +4014,7 @@
       <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <f>L7/LN(2)</f>
         <v>115.41560327111708</v>
       </c>
@@ -1020,6 +4026,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1028,7 +4035,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1176,7 +4183,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1335,4 +4342,3879 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J1">
+        <f>1/0.4491</f>
+        <v>2.22667557336896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.4031481481481482</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.40315972222222224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.40315972222222224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.875</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.40317129629629633</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.40318287037037037</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.40318287037037037</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.40319444444444441</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.375</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.40319444444444441</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.40320601851851851</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.625</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.40321759259259254</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.40321759259259254</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>0.214</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6.875</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.40322916666666669</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>0.314</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.40324074074074073</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.125</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.2430000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.40324074074074073</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.7170000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.40325231481481483</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2.3220000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.40325231481481483</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0.871</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3.0179999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.40326388888888887</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10.625</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.40327546296296296</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.40327546296296296</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.403287037037037</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.403287037037037</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.40329861111111115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.40331018518518519</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.40331018518518519</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.40332175925925928</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.40332175925925928</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.40333333333333332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.40333333333333332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.40334490740740742</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.40334490740740742</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.40335648148148145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="J1">
+        <f>1/0.4496</f>
+        <v>2.2241992882562278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.38443287037037038</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H2" s="3">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.38444444444444442</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.38444444444444442</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>117.3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.875</v>
+      </c>
+      <c r="H4" s="3">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.38445601851851857</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>35.9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.38445601851851857</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>47.7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="H6" s="3">
+        <v>144.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.38446759259259261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>59.6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H7" s="3">
+        <v>201.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.38447916666666665</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.375</v>
+      </c>
+      <c r="H8" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.38447916666666665</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>101.4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.38449074074074074</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.38449074074074074</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>201.4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.38450231481481478</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>239</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.38451388888888888</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>331</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.38451388888888888</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.38452546296296292</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.38452546296296292</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.38453703703703707</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.38453703703703707</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.3845486111111111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.3845486111111111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.3845601851851852</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.38457175925925924</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.38457175925925924</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.38458333333333333</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.38458333333333333</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J1">
+        <f>1/0.4191</f>
+        <v>2.3860653781913626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.39090277777777777</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.39091435185185186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.39091435185185186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.875</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3909259259259259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.3909259259259259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.39093749999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.39093749999999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.375</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.39094907407407403</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.39096064814814818</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.625</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.39096064814814818</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6.875</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.39098379629629632</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.39098379629629632</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.125</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.39099537037037035</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.39099537037037035</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.39100694444444445</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2.4889999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.39101851851851849</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1.071</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10.625</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2.8919999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.39101851851851849</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>1.431</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3.1560000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.39103009259259264</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>1.554</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11.875</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3.633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.39103009259259264</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.39104166666666668</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.39105324074074077</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>2.8919999999999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.39105324074074077</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>3.1560000000000001</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.39106481481481481</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>3.633</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J1">
+        <f>1/0.4576</f>
+        <v>2.1853146853146854</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.41568287037037038</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J2">
+        <f>ABS(J1-3)/3</f>
+        <v>0.27156177156177153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.41569444444444442</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.41570601851851857</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>1.804</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.875</v>
+      </c>
+      <c r="H4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.41570601851851857</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.41571759259259261</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="H6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.41571759259259261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H7">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.41572916666666665</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.375</v>
+      </c>
+      <c r="H8">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.41574074074074074</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.41574074074074074</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.625</v>
+      </c>
+      <c r="H10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.41575231481481478</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="H11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.41575231481481478</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6.875</v>
+      </c>
+      <c r="H12">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.41576388888888888</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H13">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.41577546296296292</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.125</v>
+      </c>
+      <c r="H14">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.41577546296296292</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="H15">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.41578703703703707</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="H16">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.4157986111111111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0.127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.4157986111111111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10.625</v>
+      </c>
+      <c r="H18">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.4158101851851852</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="H19">
+        <v>1.206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.4158101851851852</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11.875</v>
+      </c>
+      <c r="H20">
+        <v>1.595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.41582175925925924</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="H21">
+        <v>2.0710000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.41582175925925924</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4">
+        <v>13.125</v>
+      </c>
+      <c r="H22">
+        <v>2.4289999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.41583333333333333</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>1.206</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H23">
+        <v>3.173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.41584490740740737</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1.595</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.41584490740740737</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.41585648148148152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.41586805555555556</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>3.173</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.41586805555555556</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.41587962962962965</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.41587962962962965</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.41589120370370369</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.41589120370370369</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.41590277777777779</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.41591435185185183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.41591435185185183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.41592592592592598</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>3.3519999999999999</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.41592592592592598</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>3.5070000000000001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.41593750000000002</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>3.4020000000000001</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.41594907407407411</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.41594907407407411</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>3.867</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J1">
+        <f>1/0.4804</f>
+        <v>2.0815986677768525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.41706018518518517</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.41707175925925927</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H3" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.41707175925925927</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.875</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.41708333333333331</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.41709490740740746</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.41709490740740746</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.41710648148148149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.375</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.41711805555555559</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.41711805555555559</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.625</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.41712962962962963</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.41712962962962963</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6.875</v>
+      </c>
+      <c r="H12" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.41714120370370367</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>0.04</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.41715277777777776</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.125</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.41715277777777776</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.4171643518518518</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9.375</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.4171643518518518</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.41717592592592595</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0.33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10.625</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.41718749999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.41718749999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11.875</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.41719907407407408</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2.1829999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.41719907407407408</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4">
+        <v>13.125</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.4740000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.41721064814814812</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>1.22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2.7879999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.41722222222222222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1.659</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4">
+        <v>14.375</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3.2349999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.41722222222222222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.7490000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.41723379629629626</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.41723379629629626</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2.7879999999999998</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.41724537037037041</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.41725694444444444</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>3.7490000000000001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.41725694444444444</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>3.68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.41726851851851854</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.41728009259259258</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>2.6230000000000002</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.41728009259259258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.41729166666666667</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>2.87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.41729166666666667</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>3.452</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.41730324074074071</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>3.8940000000000001</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.41730324074074071</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>